--- a/biology/Médecine/Test_de_Schilling/Test_de_Schilling.xlsx
+++ b/biology/Médecine/Test_de_Schilling/Test_de_Schilling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de Schilling, nommé en l'honneur de Robert Frederick Schilling (1919-2014), permet d'explorer l'absorption de la vitamine B12, dans le but de déceler une anomalie de l'iléon distal (où est absorbée la vitamine B12), ou une carence en facteur intrinsèque.
 </t>
@@ -511,11 +523,13 @@
           <t>Processus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On procède une injection intramusculaire de vitamine B12 qui sature les sites récepteurs. 
 Une capsule contenant de la vitamine B12 marquée au cobalt radioactif est donnée par voie orale la veille du test. La radioactivité urinaire est dosée au cours de 24 heures suivantes. Normalement, plus de 10 % de la dose ingérée est retrouvée dans les urines des premières 24 heures ; 
-si elle est inférieure à 10 % : il y a malabsorption[1]
+si elle est inférieure à 10 % : il y a malabsorption
 Chez le patient atteint d'Anémie pernicieuse, aussi dite de Biermer, qui ne résorbe pas la vitamine B12 donnée par voie orale, l'excrétion urinaire varie entre 0 et 7 % ;
 chez le sujet normal, 11 à 16 % de la radioactivité de la dose traceuse est retrouvée dans les urines des premières 24 heures.
 Le test de Schilling se normalise pendant l'administration de facteur intrinsèque, mais non, évidemment, pendant le traitement à la vitamine B12.   
